--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -1,209 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOCURI\DJANGOEU\ProjectBilete_meciuri\djangoFinalProject\fixture\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FB6B4-5B2E-4F04-AACA-B2F1EB887892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fixture-Barcelona" sheetId="1" r:id="rId1"/>
+    <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Getafe CF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-08-28 - 2021-08-31															</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Granada FC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-09-18 - 2021-09-21															</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Levante UD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-09-25 - 2021-09-28															</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Valencia CF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-10-16 - 2021-10-19															</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Real Madrid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-10-24 - 2021-10-24															</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Deportivo Alves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-10-30 - 2021-11-02															</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs RCD Espanyol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-11-20 - 2021-11-23															</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Real Betis Balompie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-12-04 - 2021-12-07															</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Elche CF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2021-12-18 - 2021-12-21															</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Rayo Vallecano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-01-18 - 2022-01-21															</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Atletico Madrid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-02-06 - 2022-02-06															</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Athletic Club Bilbao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-02-26 - 2022-03-01															</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs CA Osasuna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-03-12 - 2022-03-15															</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Sevilla FC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-04-02 - 2022-04-05															</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Cadiz CF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-04-16 - 2022-04-19															</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs RCD Mallorca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-04-30 - 2022-05-03															</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Celta de Vigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-05-10 - 2022-05-13															</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-FC Barcelona vs Villarreal FC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-																2022-05-21 - 2022-05-24															</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>FC Barcelona vs Granada CF</t>
+  </si>
+  <si>
+    <t>September 20th 2021</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs UD Levante</t>
+  </si>
+  <si>
+    <t>September 26th 2021</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>October 31st 2021</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Real Betis Balompié</t>
+  </si>
+  <si>
+    <t>December 5th 2021</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Elche CF</t>
+  </si>
+  <si>
+    <t>December 19th 2021</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>January 19th 2022</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>February 27th 2022</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>March 13th 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>May 1st 2022</t>
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Villareal CF</t>
+  </si>
+  <si>
+    <t>May 22nd 2022</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -286,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,14 +499,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -556,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -564,65 +539,65 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -630,106 +605,40 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -1,44 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOCURI\DJANGOEU\ProjectBilete_meciuri\djangoFinalProject\fixture\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FB6B4-5B2E-4F04-AACA-B2F1EB887892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>FC Barcelona vs Granada CF</t>
-  </si>
-  <si>
-    <t>September 20th 2021</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs UD Levante</t>
-  </si>
-  <si>
-    <t>September 26th 2021</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>FC Barcelona vs Deportivo Alavés</t>
   </si>
@@ -55,83 +31,83 @@
     <t>December 5th 2021</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Elche CF</t>
+  </si>
+  <si>
+    <t>December 19th 2021</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>January 19th 2022</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
-    <t>FC Barcelona vs Elche CF</t>
-  </si>
-  <si>
-    <t>December 19th 2021</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>January 19th 2022</t>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>February 27th 2022</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>March 13th 2022</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>FC Barcelona vs Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>February 27th 2022</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Osasuna</t>
-  </si>
-  <si>
-    <t>March 13th 2022</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>FC Barcelona vs RCD Mallorca</t>
   </si>
   <si>
     <t>May 1st 2022</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
   <si>
     <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,17 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -531,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -553,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -564,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -575,7 +504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -586,7 +515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -594,51 +523,29 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -19,10 +19,10 @@
     <t>FC Barcelona vs Deportivo Alavés</t>
   </si>
   <si>
-    <t>October 31st 2021</t>
-  </si>
-  <si>
-    <t>82</t>
+    <t>October 30th 2021</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>FC Barcelona vs Real Betis Balompié</t>
@@ -31,76 +31,76 @@
     <t>December 5th 2021</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Elche CF</t>
+  </si>
+  <si>
+    <t>December 19th 2021</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>January 19th 2022</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>February 27th 2022</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>March 13th 2022</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>May 1st 2022</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Villareal CF</t>
+  </si>
+  <si>
+    <t>May 22nd 2022</t>
+  </si>
+  <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Elche CF</t>
-  </si>
-  <si>
-    <t>December 19th 2021</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>January 19th 2022</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>February 27th 2022</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Osasuna</t>
-  </si>
-  <si>
-    <t>March 13th 2022</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs RCD Mallorca</t>
-  </si>
-  <si>
-    <t>May 1st 2022</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Villareal CF</t>
-  </si>
-  <si>
-    <t>May 22nd 2022</t>
   </si>
 </sst>
 </file>
@@ -534,18 +534,18 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>FC Barcelona vs Deportivo Alavés</t>
   </si>
@@ -22,85 +22,82 @@
     <t>October 30th 2021</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Real Betis Balompié</t>
+  </si>
+  <si>
+    <t>December 5th 2021</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Elche CF</t>
+  </si>
+  <si>
+    <t>December 19th 2021</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>January 19th 2022</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>February 27th 2022</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>March 13th 2022</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>May 1st 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Villareal CF</t>
+  </si>
+  <si>
+    <t>May 22nd 2022</t>
+  </si>
+  <si>
     <t>67</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Real Betis Balompié</t>
-  </si>
-  <si>
-    <t>December 5th 2021</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Elche CF</t>
-  </si>
-  <si>
-    <t>December 19th 2021</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>January 19th 2022</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>February 27th 2022</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Osasuna</t>
-  </si>
-  <si>
-    <t>March 13th 2022</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs RCD Mallorca</t>
-  </si>
-  <si>
-    <t>May 1st 2022</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Villareal CF</t>
-  </si>
-  <si>
-    <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>66</t>
   </si>
 </sst>
 </file>
@@ -523,29 +520,29 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,90 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>FC Barcelona vs Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>October 30th 2021</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>FC Barcelona vs Real Betis Balompié</t>
   </si>
   <si>
-    <t>December 5th 2021</t>
+    <t>December 4th 2021</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Elche CF</t>
+  </si>
+  <si>
+    <t>December 19th 2021</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>January 19th 2022</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>February 27th 2022</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>March 13th 2022</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>May 1st 2022</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>FC Barcelona vs Elche CF</t>
-  </si>
-  <si>
-    <t>December 19th 2021</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>January 19th 2022</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>February 27th 2022</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Osasuna</t>
-  </si>
-  <si>
-    <t>March 13th 2022</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs RCD Mallorca</t>
-  </si>
-  <si>
-    <t>May 1st 2022</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
   <si>
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>67</t>
+    <t>63</t>
   </si>
 </sst>
 </file>
@@ -429,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,51 +489,40 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>FC Barcelona vs Real Betis Balompié</t>
   </si>
@@ -22,16 +22,16 @@
     <t>December 4th 2021</t>
   </si>
   <si>
-    <t>76</t>
+    <t>77</t>
   </si>
   <si>
     <t>FC Barcelona vs Elche CF</t>
   </si>
   <si>
-    <t>December 19th 2021</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>December 18th 2021</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>FC Barcelona vs Rayo Vallecano</t>
@@ -40,7 +40,7 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>82</t>
+    <t>70</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -49,7 +49,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>58</t>
+    <t>86</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -67,28 +67,31 @@
     <t>April 17th 2022</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>FC Barcelona vs RCD Mallorca</t>
   </si>
   <si>
     <t>May 1st 2022</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>FC Barcelona vs Celta de Vigo</t>
   </si>
   <si>
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>59</t>
+    <t>81</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
   <si>
     <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>63</t>
   </si>
 </sst>
 </file>
@@ -489,40 +492,40 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>FC Barcelona vs Real Betis Balompié</t>
-  </si>
-  <si>
-    <t>December 4th 2021</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>FC Barcelona vs Elche CF</t>
   </si>
@@ -31,7 +22,7 @@
     <t>December 18th 2021</t>
   </si>
   <si>
-    <t>51</t>
+    <t>79</t>
   </si>
   <si>
     <t>FC Barcelona vs Rayo Vallecano</t>
@@ -40,7 +31,7 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>70</t>
+    <t>60</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -49,16 +40,13 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Osasuna</t>
   </si>
   <si>
     <t>March 13th 2022</t>
   </si>
   <si>
-    <t>71</t>
+    <t>55</t>
   </si>
   <si>
     <t>FC Barcelona vs Cadiz CF</t>
@@ -67,7 +55,7 @@
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>63</t>
+    <t>75</t>
   </si>
   <si>
     <t>FC Barcelona vs RCD Mallorca</t>
@@ -76,7 +64,7 @@
     <t>May 1st 2022</t>
   </si>
   <si>
-    <t>89</t>
+    <t>66</t>
   </si>
   <si>
     <t>FC Barcelona vs Celta de Vigo</t>
@@ -85,7 +73,7 @@
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>81</t>
+    <t>68</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
@@ -423,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,73 +447,62 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>FC Barcelona vs Elche CF</t>
   </si>
@@ -22,7 +22,7 @@
     <t>December 18th 2021</t>
   </si>
   <si>
-    <t>79</t>
+    <t>68</t>
   </si>
   <si>
     <t>FC Barcelona vs Rayo Vallecano</t>
@@ -31,7 +31,7 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>60</t>
+    <t>85</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -40,13 +40,16 @@
     <t>February 27th 2022</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>FC Barcelona vs Osasuna</t>
   </si>
   <si>
     <t>March 13th 2022</t>
   </si>
   <si>
-    <t>55</t>
+    <t>83</t>
   </si>
   <si>
     <t>FC Barcelona vs Cadiz CF</t>
@@ -55,7 +58,7 @@
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>75</t>
+    <t>66</t>
   </si>
   <si>
     <t>FC Barcelona vs RCD Mallorca</t>
@@ -64,7 +67,7 @@
     <t>May 1st 2022</t>
   </si>
   <si>
-    <t>66</t>
+    <t>73</t>
   </si>
   <si>
     <t>FC Barcelona vs Celta de Vigo</t>
@@ -73,13 +76,16 @@
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>68</t>
+    <t>67</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
   <si>
     <t>May 22nd 2022</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -447,62 +453,62 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>FC Barcelona vs Elche CF</t>
   </si>
@@ -31,7 +31,16 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>85</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Napoli SSC</t>
+  </si>
+  <si>
+    <t>February 17th 2022</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -40,7 +49,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>56</t>
+    <t>79</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -49,18 +58,12 @@
     <t>March 13th 2022</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Cadiz CF</t>
   </si>
   <si>
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>FC Barcelona vs RCD Mallorca</t>
   </si>
   <si>
@@ -76,7 +79,7 @@
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>67</t>
+    <t>84</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
@@ -85,7 +88,7 @@
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>59</t>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,40 +478,51 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>FC Barcelona vs Elche CF</t>
-  </si>
-  <si>
-    <t>December 18th 2021</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>FC Barcelona vs Rayo Vallecano</t>
   </si>
@@ -31,7 +22,7 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>75</t>
+    <t>79</t>
   </si>
   <si>
     <t>FC Barcelona vs Napoli SSC</t>
@@ -40,7 +31,7 @@
     <t>February 17th 2022</t>
   </si>
   <si>
-    <t>54</t>
+    <t>63</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -49,7 +40,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>79</t>
+    <t>60</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -58,19 +49,25 @@
     <t>March 13th 2022</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>FC Barcelona vs Cadiz CF</t>
   </si>
   <si>
     <t>April 17th 2022</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>FC Barcelona vs RCD Mallorca</t>
   </si>
   <si>
     <t>May 1st 2022</t>
   </si>
   <si>
-    <t>73</t>
+    <t>88</t>
   </si>
   <si>
     <t>FC Barcelona vs Celta de Vigo</t>
@@ -79,7 +76,7 @@
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>84</t>
+    <t>69</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
@@ -88,7 +85,7 @@
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>81</t>
+    <t>77</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,51 +475,40 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>FC Barcelona vs Rayo Vallecano</t>
   </si>
@@ -22,7 +22,7 @@
     <t>January 19th 2022</t>
   </si>
   <si>
-    <t>79</t>
+    <t>55</t>
   </si>
   <si>
     <t>FC Barcelona vs Napoli SSC</t>
@@ -31,7 +31,7 @@
     <t>February 17th 2022</t>
   </si>
   <si>
-    <t>63</t>
+    <t>50</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -40,7 +40,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>60</t>
+    <t>70</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -49,7 +49,7 @@
     <t>March 13th 2022</t>
   </si>
   <si>
-    <t>83</t>
+    <t>62</t>
   </si>
   <si>
     <t>FC Barcelona vs Cadiz CF</t>
@@ -58,7 +58,7 @@
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>82</t>
+    <t>75</t>
   </si>
   <si>
     <t>FC Barcelona vs RCD Mallorca</t>
@@ -67,16 +67,13 @@
     <t>May 1st 2022</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Celta de Vigo</t>
   </si>
   <si>
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>69</t>
+    <t>59</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
@@ -85,7 +82,7 @@
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>77</t>
+    <t>53</t>
   </si>
 </sst>
 </file>
@@ -486,29 +483,29 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>FC Barcelona vs Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>January 19th 2022</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FC Barcelona vs Napoli SSC</t>
   </si>
@@ -31,7 +22,7 @@
     <t>February 17th 2022</t>
   </si>
   <si>
-    <t>50</t>
+    <t>81</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -40,7 +31,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>70</t>
+    <t>79</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -49,40 +40,43 @@
     <t>March 13th 2022</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>April 17th 2022</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>May 1st 2022</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs RCD Mallorca</t>
-  </si>
-  <si>
-    <t>May 1st 2022</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Celta de Vigo</t>
   </si>
   <si>
     <t>May 11th 2022</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Villareal CF</t>
+  </si>
+  <si>
+    <t>May 22nd 2022</t>
+  </si>
+  <si>
     <t>59</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Villareal CF</t>
-  </si>
-  <si>
-    <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
 </sst>
 </file>
@@ -414,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,29 +477,18 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>FC Barcelona vs Napoli SSC</t>
   </si>
@@ -22,7 +22,7 @@
     <t>February 17th 2022</t>
   </si>
   <si>
-    <t>81</t>
+    <t>80</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
@@ -31,7 +31,7 @@
     <t>February 27th 2022</t>
   </si>
   <si>
-    <t>79</t>
+    <t>72</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -40,16 +40,13 @@
     <t>March 13th 2022</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>FC Barcelona vs Cadiz CF</t>
   </si>
   <si>
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>56</t>
+    <t>63</t>
   </si>
   <si>
     <t>FC Barcelona vs RCD Mallorca</t>
@@ -58,25 +55,25 @@
     <t>May 1st 2022</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>May 11th 2022</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
+    <t>FC Barcelona vs Villareal CF</t>
+  </si>
+  <si>
+    <t>May 22nd 2022</t>
   </si>
   <si>
     <t>53</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Villareal CF</t>
-  </si>
-  <si>
-    <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>59</t>
   </si>
 </sst>
 </file>
@@ -444,51 +441,51 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FC Barcelona vs Napoli SSC</t>
   </si>
@@ -22,16 +22,16 @@
     <t>February 17th 2022</t>
   </si>
   <si>
-    <t>80</t>
+    <t>66</t>
   </si>
   <si>
     <t>FC Barcelona vs Athletic Club de Bilbao</t>
   </si>
   <si>
-    <t>February 27th 2022</t>
-  </si>
-  <si>
-    <t>72</t>
+    <t>February 26th 2022</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>FC Barcelona vs Osasuna</t>
@@ -40,13 +40,16 @@
     <t>March 13th 2022</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>FC Barcelona vs Cadiz CF</t>
   </si>
   <si>
     <t>April 17th 2022</t>
   </si>
   <si>
-    <t>63</t>
+    <t>50</t>
   </si>
   <si>
     <t>FC Barcelona vs RCD Mallorca</t>
@@ -55,7 +58,7 @@
     <t>May 1st 2022</t>
   </si>
   <si>
-    <t>52</t>
+    <t>83</t>
   </si>
   <si>
     <t>FC Barcelona vs Celta de Vigo</t>
@@ -64,7 +67,7 @@
     <t>May 11th 2022</t>
   </si>
   <si>
-    <t>62</t>
+    <t>76</t>
   </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
@@ -73,7 +76,7 @@
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>53</t>
+    <t>84</t>
   </si>
 </sst>
 </file>
@@ -441,51 +444,51 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,61 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>FC Barcelona vs Napoli SSC</t>
-  </si>
-  <si>
-    <t>February 17th 2022</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>February 26th 2022</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Osasuna</t>
-  </si>
-  <si>
-    <t>March 13th 2022</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Cadiz CF</t>
-  </si>
-  <si>
-    <t>April 17th 2022</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs RCD Mallorca</t>
-  </si>
-  <si>
-    <t>May 1st 2022</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>FC Barcelona vs Celta de Vigo</t>
-  </si>
-  <si>
-    <t>May 11th 2022</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
@@ -76,7 +22,7 @@
     <t>May 22nd 2022</t>
   </si>
   <si>
-    <t>84</t>
+    <t>62</t>
   </si>
 </sst>
 </file>
@@ -408,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,72 +371,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/Barcelona.xlsx
+++ b/fixture/Barcelona.xlsx
@@ -14,15 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+  <si>
+    <t>FC Barcelona vs Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>August 8th 2023</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Cadiz CF</t>
+  </si>
+  <si>
+    <t>August 20th 2023</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Real Betis Balompié</t>
+  </si>
+  <si>
+    <t>September 17th 2023</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Celta de Vigo</t>
+  </si>
+  <si>
+    <t>September 24th 2023</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>October 22nd 2023</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>November 12th 2023</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Girona FC</t>
+  </si>
+  <si>
+    <t>December 10th 2023</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs UD Almeria</t>
+  </si>
+  <si>
+    <t>December 20th 2023</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Osasuna</t>
+  </si>
+  <si>
+    <t>January 14th 2024</t>
+  </si>
   <si>
     <t>FC Barcelona vs Villareal CF</t>
   </si>
   <si>
-    <t>May 22nd 2022</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>January 28th 2024</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Granada CF</t>
+  </si>
+  <si>
+    <t>February 11th 2024</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Getafe CF</t>
+  </si>
+  <si>
+    <t>February 25th 2024</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs RCD Mallorca</t>
+  </si>
+  <si>
+    <t>March 10th 2024</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs UD Las Palmas</t>
+  </si>
+  <si>
+    <t>March 31st 2024</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Real Sociedad</t>
+  </si>
+  <si>
+    <t>May 12th 2024</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>FC Barcelona vs Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>May 19th 2024</t>
   </si>
 </sst>
 </file>
@@ -354,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +500,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
